--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H2">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N2">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O2">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P2">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q2">
-        <v>21.73811340904015</v>
+        <v>45.90578308710332</v>
       </c>
       <c r="R2">
-        <v>21.73811340904015</v>
+        <v>413.15204778393</v>
       </c>
       <c r="S2">
-        <v>0.00782926774632612</v>
+        <v>0.01375134971169755</v>
       </c>
       <c r="T2">
-        <v>0.00782926774632612</v>
+        <v>0.01375134971169755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H3">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N3">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q3">
-        <v>251.8638092783708</v>
+        <v>525.5400970296533</v>
       </c>
       <c r="R3">
-        <v>251.8638092783708</v>
+        <v>4729.86087326688</v>
       </c>
       <c r="S3">
-        <v>0.09071206692803115</v>
+        <v>0.1574286544259939</v>
       </c>
       <c r="T3">
-        <v>0.09071206692803115</v>
+        <v>0.1574286544259939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H4">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N4">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q4">
-        <v>37.31147340823769</v>
+        <v>91.41638884435199</v>
       </c>
       <c r="R4">
-        <v>37.31147340823769</v>
+        <v>822.747499599168</v>
       </c>
       <c r="S4">
-        <v>0.01343821838750443</v>
+        <v>0.02738432170940086</v>
       </c>
       <c r="T4">
-        <v>0.01343821838750443</v>
+        <v>0.02738432170940086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H5">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N5">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q5">
-        <v>67.98528064168553</v>
+        <v>154.8990690182434</v>
       </c>
       <c r="R5">
-        <v>67.98528064168553</v>
+        <v>1394.09162116419</v>
       </c>
       <c r="S5">
-        <v>0.02448579391123807</v>
+        <v>0.04640093523825884</v>
       </c>
       <c r="T5">
-        <v>0.02448579391123807</v>
+        <v>0.04640093523825883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H6">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N6">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O6">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P6">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q6">
-        <v>73.8801343619479</v>
+        <v>75.20031824580333</v>
       </c>
       <c r="R6">
-        <v>73.8801343619479</v>
+        <v>676.8028642122299</v>
       </c>
       <c r="S6">
-        <v>0.02660890308970833</v>
+        <v>0.02252670154143413</v>
       </c>
       <c r="T6">
-        <v>0.02660890308970833</v>
+        <v>0.02252670154143413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H7">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N7">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q7">
-        <v>855.9957214437809</v>
+        <v>860.9107587288534</v>
       </c>
       <c r="R7">
-        <v>855.9957214437809</v>
+        <v>7748.19682855968</v>
       </c>
       <c r="S7">
-        <v>0.3082981290412207</v>
+        <v>0.2578909261035843</v>
       </c>
       <c r="T7">
-        <v>0.3082981290412207</v>
+        <v>0.2578909261035843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H8">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N8">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q8">
-        <v>126.8084592610727</v>
+        <v>149.753278817472</v>
       </c>
       <c r="R8">
-        <v>126.8084592610727</v>
+        <v>1347.779509357248</v>
       </c>
       <c r="S8">
-        <v>0.04567173615172818</v>
+        <v>0.04485948325039997</v>
       </c>
       <c r="T8">
-        <v>0.04567173615172818</v>
+        <v>0.04485948325039998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H9">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N9">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O9">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P9">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q9">
-        <v>231.05784637013</v>
+        <v>253.7470990103434</v>
       </c>
       <c r="R9">
-        <v>231.05784637013</v>
+        <v>2283.723891093091</v>
       </c>
       <c r="S9">
-        <v>0.08321852545717819</v>
+        <v>0.07601144915008039</v>
       </c>
       <c r="T9">
-        <v>0.08321852545717819</v>
+        <v>0.07601144915008039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H10">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N10">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O10">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P10">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q10">
-        <v>0.3637639286169414</v>
+        <v>0.4911299087488888</v>
       </c>
       <c r="R10">
-        <v>0.3637639286169414</v>
+        <v>4.420169178739999</v>
       </c>
       <c r="S10">
-        <v>0.0001310143681747978</v>
+        <v>0.0001471208783491474</v>
       </c>
       <c r="T10">
-        <v>0.0001310143681747978</v>
+        <v>0.0001471208783491473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H11">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N11">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P11">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q11">
-        <v>4.21466973768878</v>
+        <v>5.622569587982222</v>
       </c>
       <c r="R11">
-        <v>4.21466973768878</v>
+        <v>50.60312629184</v>
       </c>
       <c r="S11">
-        <v>0.001517968795994084</v>
+        <v>0.001684274082330604</v>
       </c>
       <c r="T11">
-        <v>0.001517968795994084</v>
+        <v>0.001684274082330604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H12">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N12">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O12">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P12">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q12">
-        <v>0.6243673447679551</v>
+        <v>0.9780319535359998</v>
       </c>
       <c r="R12">
-        <v>0.6243673447679551</v>
+        <v>8.802287581824</v>
       </c>
       <c r="S12">
-        <v>0.0002248741195828951</v>
+        <v>0.0002929752749619616</v>
       </c>
       <c r="T12">
-        <v>0.0002248741195828951</v>
+        <v>0.0002929752749619616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H13">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N13">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O13">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P13">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q13">
-        <v>1.137660491000116</v>
+        <v>1.657210933268889</v>
       </c>
       <c r="R13">
-        <v>1.137660491000116</v>
+        <v>14.91489839942</v>
       </c>
       <c r="S13">
-        <v>0.0004097434041701431</v>
+        <v>0.0004964273683380738</v>
       </c>
       <c r="T13">
-        <v>0.0004097434041701431</v>
+        <v>0.0004964273683380737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H14">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N14">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O14">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P14">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q14">
-        <v>63.31200609470875</v>
+        <v>65.79988328679499</v>
       </c>
       <c r="R14">
-        <v>63.31200609470875</v>
+        <v>592.1989495811549</v>
       </c>
       <c r="S14">
-        <v>0.02280265255522894</v>
+        <v>0.01971074547075537</v>
       </c>
       <c r="T14">
-        <v>0.02280265255522894</v>
+        <v>0.01971074547075537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H15">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N15">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O15">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P15">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q15">
-        <v>733.5504571172844</v>
+        <v>753.29238979472</v>
       </c>
       <c r="R15">
-        <v>733.5504571172844</v>
+        <v>6779.63150815248</v>
       </c>
       <c r="S15">
-        <v>0.2641978549906151</v>
+        <v>0.2256532051217258</v>
       </c>
       <c r="T15">
-        <v>0.2641978549906151</v>
+        <v>0.2256532051217258</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H16">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N16">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O16">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P16">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q16">
-        <v>108.6692385569449</v>
+        <v>131.033332010592</v>
       </c>
       <c r="R16">
-        <v>108.6692385569449</v>
+        <v>1179.299988095328</v>
       </c>
       <c r="S16">
-        <v>0.03913865699577629</v>
+        <v>0.03925181210715129</v>
       </c>
       <c r="T16">
-        <v>0.03913865699577629</v>
+        <v>0.03925181210715129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H17">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N17">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O17">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P17">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q17">
-        <v>198.0063504750542</v>
+        <v>222.027378190985</v>
       </c>
       <c r="R17">
-        <v>198.0063504750542</v>
+        <v>1998.246403718865</v>
       </c>
       <c r="S17">
-        <v>0.07131459405752261</v>
+        <v>0.06650961856553793</v>
       </c>
       <c r="T17">
-        <v>0.07131459405752261</v>
+        <v>0.06650961856553793</v>
       </c>
     </row>
   </sheetData>
